--- a/Standings2013.xlsx
+++ b/Standings2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="270" windowWidth="24915" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="8B" sheetId="1" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6941,7 +6941,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
